--- a/biology/Botanique/Paul_Duvigneaud/Paul_Duvigneaud.xlsx
+++ b/biology/Botanique/Paul_Duvigneaud/Paul_Duvigneaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Duvigneaud, né le 13 août 1913 à Marche-en-Famenne et mort le 21 décembre 1991 à Bruxelles[1], est un botaniste belge.
-Il fut professeur à l'Université libre de Bruxelles, à la Faculté des Sciences agronomiques de Gembloux et à l'Université Paris Diderot où il reçut le titre de docteur honoris causa[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Duvigneaud, né le 13 août 1913 à Marche-en-Famenne et mort le 21 décembre 1991 à Bruxelles, est un botaniste belge.
+Il fut professeur à l'Université libre de Bruxelles, à la Faculté des Sciences agronomiques de Gembloux et à l'Université Paris Diderot où il reçut le titre de docteur honoris causa.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après deux licences à l’Université Libre de Bruxelles (1935, 1937) en Biologie, il y travaille comme assistant jusqu’en 1941, puis étudie au Katanga les lichens du Congo pour les Parcs nationaux du Congo belge. En 1949, il est chargé de cours à l’Institut agronomique de Gembloux, en 1952, professeur extraordinaire à l’ULB et ordinaire en 1956. Il enseigne à la Faculté des sciences et à la Faculté de médecine et de pharmacie[3].
-Il est professeur à l’Université de Paris 7 de 1977 à 1983[3].
-Il est l'un des fondateurs du Programme biologique international (PBI)[note 1], dont il fut le président du comité belge jusqu’en 1974, puis membre du comité central du Scientific Committee on Problems of the Environment (SCOPE)[3].
-Il est inhumé au cimetière de Neufchâteau[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après deux licences à l’Université Libre de Bruxelles (1935, 1937) en Biologie, il y travaille comme assistant jusqu’en 1941, puis étudie au Katanga les lichens du Congo pour les Parcs nationaux du Congo belge. En 1949, il est chargé de cours à l’Institut agronomique de Gembloux, en 1952, professeur extraordinaire à l’ULB et ordinaire en 1956. Il enseigne à la Faculté des sciences et à la Faculté de médecine et de pharmacie.
+Il est professeur à l’Université de Paris 7 de 1977 à 1983.
+Il est l'un des fondateurs du Programme biologique international (PBI)[note 1], dont il fut le président du comité belge jusqu’en 1974, puis membre du comité central du Scientific Committee on Problems of the Environment (SCOPE).
+Il est inhumé au cimetière de Neufchâteau.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Les usnées barbues et le Crosspterygo-Usnetum des savanes du Bas-Congo, Bulletin de la Société royale de botanique de Belgique, no 85, p. 99-114
 « Études sur la végétation du Katanga et de ses sols métallifères :1. La végétation des sols métallifères », Bulletin de la Société royale de botanique de Belgique, 1958, no 90, p. 127-286
